--- a/data_year/zb/文化/艺术表演团体、艺术表演场馆演出情况.xlsx
+++ b/data_year/zb/文化/艺术表演团体、艺术表演场馆演出情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,730 +493,504 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>84.67100000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>563676</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1277.82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>884558</v>
+      </c>
       <c r="F2" t="n">
-        <v>2619</v>
+        <v>6864</v>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>137.149</v>
       </c>
       <c r="H2" t="n">
-        <v>1900</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>1461</v>
+      </c>
+      <c r="I2" t="n">
+        <v>811.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>147.23</v>
+      </c>
+      <c r="K2" t="n">
+        <v>54709</v>
+      </c>
+      <c r="L2" t="n">
+        <v>132719</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>100.671</v>
+      </c>
+      <c r="C3" t="n">
+        <v>439235.22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1465.93</v>
+      </c>
+      <c r="E3" t="n">
+        <v>745850.5</v>
+      </c>
       <c r="F3" t="n">
-        <v>2605</v>
+        <v>7055</v>
       </c>
       <c r="G3" t="n">
-        <v>42.3</v>
+        <v>154.72</v>
       </c>
       <c r="H3" t="n">
-        <v>1854</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>1429</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1040.69</v>
+      </c>
+      <c r="J3" t="n">
+        <v>139.02</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47566.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>109088.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>81.155</v>
+      </c>
+      <c r="C4" t="n">
+        <v>521024.34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1249.81</v>
+      </c>
+      <c r="E4" t="n">
+        <v>828050.92</v>
+      </c>
       <c r="F4" t="n">
-        <v>2587</v>
+        <v>7321</v>
       </c>
       <c r="G4" t="n">
-        <v>41.6</v>
+        <v>135.018</v>
       </c>
       <c r="H4" t="n">
-        <v>1829</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>1279</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1186.87</v>
+      </c>
+      <c r="J4" t="n">
+        <v>172.71</v>
+      </c>
+      <c r="K4" t="n">
+        <v>61187.36</v>
+      </c>
+      <c r="L4" t="n">
+        <v>186044.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>105.073</v>
+      </c>
+      <c r="C5" t="n">
+        <v>529734.37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1628.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>900642.51</v>
+      </c>
       <c r="F5" t="n">
-        <v>2601</v>
+        <v>8180</v>
       </c>
       <c r="G5" t="n">
-        <v>38.5</v>
+        <v>165.105</v>
       </c>
       <c r="H5" t="n">
-        <v>1900</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+        <v>1253</v>
+      </c>
+      <c r="I5" t="n">
+        <v>829.28</v>
+      </c>
+      <c r="J5" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26624.45</v>
+      </c>
+      <c r="L5" t="n">
+        <v>77763.47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>114.037</v>
+      </c>
+      <c r="C6" t="n">
+        <v>558626.66</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1710.84</v>
+      </c>
+      <c r="E6" t="n">
+        <v>910196.77</v>
+      </c>
       <c r="F6" t="n">
-        <v>2759</v>
+        <v>8769</v>
       </c>
       <c r="G6" t="n">
-        <v>42.5</v>
+        <v>173.912</v>
       </c>
       <c r="H6" t="n">
-        <v>1928</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>1248</v>
+      </c>
+      <c r="I6" t="n">
+        <v>780.66</v>
+      </c>
+      <c r="J6" t="n">
+        <v>69.54000000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>25982.67</v>
+      </c>
+      <c r="L6" t="n">
+        <v>68443.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>139.079</v>
+      </c>
+      <c r="C7" t="n">
+        <v>584536.88</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2092.73</v>
+      </c>
+      <c r="E7" t="n">
+        <v>957989.92</v>
+      </c>
       <c r="F7" t="n">
-        <v>2805</v>
+        <v>10787</v>
       </c>
       <c r="G7" t="n">
-        <v>45.9</v>
+        <v>210.776</v>
       </c>
       <c r="H7" t="n">
-        <v>1866</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+        <v>1264</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1064.63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>136.83</v>
+      </c>
+      <c r="K7" t="n">
+        <v>28536.29</v>
+      </c>
+      <c r="L7" t="n">
+        <v>107754.21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+        <v>151.597</v>
+      </c>
+      <c r="C8" t="n">
+        <v>620521.14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2290.33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1181376.7</v>
+      </c>
       <c r="F8" t="n">
-        <v>2866</v>
+        <v>12301</v>
       </c>
       <c r="G8" t="n">
-        <v>49</v>
+        <v>230.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1839</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+        <v>1265</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1194.06</v>
+      </c>
+      <c r="J8" t="n">
+        <v>190.91</v>
+      </c>
+      <c r="K8" t="n">
+        <v>30980.52</v>
+      </c>
+      <c r="L8" t="n">
+        <v>128836.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.29</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+        <v>184.309</v>
+      </c>
+      <c r="C9" t="n">
+        <v>829563.87</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2921.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1247390.62</v>
+      </c>
       <c r="F9" t="n">
-        <v>4512</v>
+        <v>15742</v>
       </c>
       <c r="G9" t="n">
-        <v>92.2</v>
+        <v>293.579</v>
       </c>
       <c r="H9" t="n">
-        <v>1732</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+        <v>1253</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1419.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>211.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>32342.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>134538</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.222</v>
+        <v>178.8</v>
       </c>
       <c r="C10" t="n">
-        <v>416580</v>
+        <v>778980</v>
       </c>
       <c r="D10" t="n">
-        <v>851.9299999999999</v>
+        <v>3108.5</v>
       </c>
       <c r="E10" t="n">
-        <v>631868</v>
+        <v>1175690</v>
       </c>
       <c r="F10" t="n">
-        <v>5114</v>
+        <v>17123</v>
       </c>
       <c r="G10" t="n">
-        <v>90.52500000000001</v>
+        <v>312.46</v>
       </c>
       <c r="H10" t="n">
-        <v>1662</v>
+        <v>1236</v>
       </c>
       <c r="I10" t="n">
-        <v>740</v>
+        <v>1266.4</v>
       </c>
       <c r="J10" t="n">
-        <v>96</v>
+        <v>178.9</v>
       </c>
       <c r="K10" t="n">
-        <v>44288</v>
+        <v>58620</v>
       </c>
       <c r="L10" t="n">
-        <v>127443</v>
+        <v>140930</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.059</v>
+        <v>171.3</v>
       </c>
       <c r="C11" t="n">
-        <v>515891</v>
+        <v>768030</v>
       </c>
       <c r="D11" t="n">
-        <v>1126.35</v>
+        <v>2956.2</v>
       </c>
       <c r="E11" t="n">
-        <v>817159</v>
+        <v>1230200</v>
       </c>
       <c r="F11" t="n">
-        <v>6139</v>
+        <v>17795</v>
       </c>
       <c r="G11" t="n">
-        <v>120.11</v>
+        <v>296.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1499</v>
+        <v>1202</v>
       </c>
       <c r="I11" t="n">
-        <v>606.26</v>
+        <v>1284.4</v>
       </c>
       <c r="J11" t="n">
-        <v>149.49</v>
+        <v>245.4</v>
       </c>
       <c r="K11" t="n">
-        <v>53692</v>
+        <v>67850</v>
       </c>
       <c r="L11" t="n">
-        <v>123193</v>
+        <v>125610</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.67100000000001</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>563676</v>
+        <v>325526.1</v>
       </c>
       <c r="D12" t="n">
-        <v>1277.82</v>
+        <v>2226.5</v>
       </c>
       <c r="E12" t="n">
-        <v>884558</v>
+        <v>889518.1</v>
       </c>
       <c r="F12" t="n">
-        <v>6864</v>
+        <v>17581</v>
       </c>
       <c r="G12" t="n">
-        <v>137.149</v>
+        <v>223.19</v>
       </c>
       <c r="H12" t="n">
-        <v>1461</v>
+        <v>1111</v>
       </c>
       <c r="I12" t="n">
-        <v>811.2</v>
+        <v>588.3</v>
       </c>
       <c r="J12" t="n">
-        <v>147.23</v>
+        <v>317</v>
       </c>
       <c r="K12" t="n">
-        <v>54709</v>
+        <v>40770</v>
       </c>
       <c r="L12" t="n">
-        <v>132719</v>
+        <v>60646.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.671</v>
+        <v>109.82</v>
       </c>
       <c r="C13" t="n">
-        <v>439235.22</v>
+        <v>327693.8</v>
       </c>
       <c r="D13" t="n">
-        <v>1465.93</v>
+        <v>2320.5</v>
       </c>
       <c r="E13" t="n">
-        <v>745850.5</v>
+        <v>928035</v>
       </c>
       <c r="F13" t="n">
-        <v>7055</v>
+        <v>18370</v>
       </c>
       <c r="G13" t="n">
-        <v>154.72</v>
+        <v>232.53</v>
       </c>
       <c r="H13" t="n">
-        <v>1429</v>
+        <v>1075</v>
       </c>
       <c r="I13" t="n">
-        <v>1040.69</v>
+        <v>1070.4</v>
       </c>
       <c r="J13" t="n">
-        <v>139.02</v>
+        <v>642.6</v>
       </c>
       <c r="K13" t="n">
-        <v>47566.5</v>
+        <v>83507.3</v>
       </c>
       <c r="L13" t="n">
-        <v>109088.3</v>
+        <v>112092.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>81.155</v>
-      </c>
-      <c r="C14" t="n">
-        <v>521024.34</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1249.81</v>
-      </c>
-      <c r="E14" t="n">
-        <v>828050.92</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>7321</v>
-      </c>
-      <c r="G14" t="n">
-        <v>135.018</v>
-      </c>
+        <v>19741</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>1279</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1186.87</v>
-      </c>
-      <c r="J14" t="n">
-        <v>172.71</v>
-      </c>
-      <c r="K14" t="n">
-        <v>61187.36</v>
-      </c>
-      <c r="L14" t="n">
-        <v>186044.08</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>105.073</v>
-      </c>
-      <c r="C15" t="n">
-        <v>529734.37</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1628.1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>900642.51</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8180</v>
-      </c>
-      <c r="G15" t="n">
-        <v>165.105</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1344</v>
-      </c>
-      <c r="I15" t="n">
-        <v>829.28</v>
-      </c>
-      <c r="J15" t="n">
-        <v>66.02</v>
-      </c>
-      <c r="K15" t="n">
-        <v>26624.45</v>
-      </c>
-      <c r="L15" t="n">
-        <v>77763.47</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>114.037</v>
-      </c>
-      <c r="C16" t="n">
-        <v>558626.66</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1710.84</v>
-      </c>
-      <c r="E16" t="n">
-        <v>910196.77</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8769</v>
-      </c>
-      <c r="G16" t="n">
-        <v>173.912</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1338</v>
-      </c>
-      <c r="I16" t="n">
-        <v>780.66</v>
-      </c>
-      <c r="J16" t="n">
-        <v>69.54000000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>25982.67</v>
-      </c>
-      <c r="L16" t="n">
-        <v>68443.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>139.079</v>
-      </c>
-      <c r="C17" t="n">
-        <v>584536.88</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2092.73</v>
-      </c>
-      <c r="E17" t="n">
-        <v>957989.92</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10787</v>
-      </c>
-      <c r="G17" t="n">
-        <v>210.776</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2143</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1064.63</v>
-      </c>
-      <c r="J17" t="n">
-        <v>136.83</v>
-      </c>
-      <c r="K17" t="n">
-        <v>28536.29</v>
-      </c>
-      <c r="L17" t="n">
-        <v>107754.21</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>151.597</v>
-      </c>
-      <c r="C18" t="n">
-        <v>620521.14</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2290.33</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1181376.7</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12301</v>
-      </c>
-      <c r="G18" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2285</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1194.06</v>
-      </c>
-      <c r="J18" t="n">
-        <v>190.91</v>
-      </c>
-      <c r="K18" t="n">
-        <v>30980.52</v>
-      </c>
-      <c r="L18" t="n">
-        <v>128836.08</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>184.309</v>
-      </c>
-      <c r="C19" t="n">
-        <v>829563.87</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2921.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1247390.62</v>
-      </c>
-      <c r="F19" t="n">
-        <v>15742</v>
-      </c>
-      <c r="G19" t="n">
-        <v>293.579</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2455</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1419.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>211.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>32342.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>134538</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>178.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>778980</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3108.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1175690</v>
-      </c>
-      <c r="F20" t="n">
-        <v>17123</v>
-      </c>
-      <c r="G20" t="n">
-        <v>312.46</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2478</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1266.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>58620</v>
-      </c>
-      <c r="L20" t="n">
-        <v>140930</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>171.3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>768030</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2956.2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1230200</v>
-      </c>
-      <c r="F21" t="n">
-        <v>17795</v>
-      </c>
-      <c r="G21" t="n">
-        <v>296.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2716</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1284.4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>245.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>67850</v>
-      </c>
-      <c r="L21" t="n">
-        <v>125610</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="C22" t="n">
-        <v>325526.1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2226.5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>889518.1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>17581</v>
-      </c>
-      <c r="G22" t="n">
-        <v>223.19</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2770</v>
-      </c>
-      <c r="I22" t="n">
-        <v>588.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>317</v>
-      </c>
-      <c r="K22" t="n">
-        <v>40770</v>
-      </c>
-      <c r="L22" t="n">
-        <v>60646.7</v>
-      </c>
+        <v>1052</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
